--- a/普通股分析/中科创达.xlsx
+++ b/普通股分析/中科创达.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中科创达" sheetId="1" r:id="rId1"/>
+    <sheet name="闲聊" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,17 +208,49 @@
   </si>
   <si>
     <t>中科创达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科创板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创投基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高科技项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能和物联网创新服务平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安创加速器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为、InfinityAR、阿里、百度、小米、腾讯、京东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度Apollo计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,6 +324,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,11 +610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.25" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
@@ -589,7 +625,7 @@
     <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -605,7 +641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -613,7 +649,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -621,7 +657,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -629,7 +665,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -637,18 +673,18 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <f>SUM(B2:B6)/5</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -660,7 +696,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -684,7 +720,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2012</v>
       </c>
@@ -701,7 +737,7 @@
         <v>57569</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2013</v>
       </c>
@@ -731,7 +767,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2014</v>
       </c>
@@ -751,7 +787,7 @@
         <v>46516.54</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2015</v>
       </c>
@@ -768,7 +804,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>2016</v>
       </c>
@@ -785,7 +821,7 @@
         <v>46751</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2017</v>
       </c>
@@ -805,7 +841,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -819,7 +855,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -834,7 +870,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -849,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
@@ -863,7 +899,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -876,7 +912,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -891,7 +927,7 @@
         <v>57569</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>44</v>
       </c>
@@ -907,7 +943,7 @@
         <v>54860.46</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>20</v>
@@ -924,7 +960,7 @@
         <v>-2708.5400000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>21</v>
@@ -934,12 +970,12 @@
         <v>-32601</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -948,12 +984,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>2017</v>
       </c>
@@ -961,7 +997,7 @@
         <v>7614</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>2016</v>
@@ -970,7 +1006,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -978,7 +1014,7 @@
         <v>11638</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>25</v>
@@ -988,7 +1024,7 @@
         <v>31258</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -996,7 +1032,7 @@
         <v>11052</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1050,7 @@
         <v>20206</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1059,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
       <c r="C41" s="7">
         <v>42004</v>
@@ -1032,7 +1068,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1079,7 @@
         <v>84091</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -1054,7 +1090,7 @@
         <v>127706</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>31</v>
       </c>
@@ -1065,7 +1101,7 @@
         <v>53119</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1112,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>33</v>
       </c>
@@ -1089,7 +1125,7 @@
         <v>265762</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>34</v>
       </c>
@@ -1100,12 +1136,12 @@
         <v>111350</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>36</v>
       </c>
@@ -1116,7 +1152,7 @@
         <v>103466</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>37</v>
       </c>
@@ -1127,7 +1163,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>38</v>
       </c>
@@ -1140,7 +1176,7 @@
         <v>254817</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>39</v>
       </c>
@@ -1153,7 +1189,7 @@
         <v>181671</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>40</v>
       </c>
@@ -1175,4 +1211,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="50.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>